--- a/smart_search/Prady_Status_Report.xlsx
+++ b/smart_search/Prady_Status_Report.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\smart_search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\MedIX_Project\smart_search\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="June2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -96,13 +96,40 @@
   </si>
   <si>
     <t>3. Validation file is the patient file recorded from CT or MRA ot X-Ray, etc., which is validated against its respective teaching file resposity available in RadLex and Oxford Medical Dictionary</t>
+  </si>
+  <si>
+    <t>SIFT Indicator (Segmentation)</t>
+  </si>
+  <si>
+    <t>Patch Based Descriptor</t>
+  </si>
+  <si>
+    <t>Region Based Descriptors</t>
+  </si>
+  <si>
+    <t>SINO</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Received the data for MIRC and its reference code from Priya</t>
+  </si>
+  <si>
+    <t>Did a local back up on GitHub</t>
+  </si>
+  <si>
+    <t>Installed Anaconda for Python in local system</t>
+  </si>
+  <si>
+    <t>Installed GitHub in local system for version maintanance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,14 +138,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +183,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,14 +202,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,157 +493,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:R24"/>
+  <dimension ref="A4:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>42902</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3"/>
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3"/>
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>22</v>
+      <c r="B19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="4"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="6"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>5</v>
+      </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>6</v>
+      </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/smart_search/Prady_Status_Report.xlsx
+++ b/smart_search/Prady_Status_Report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\MedIX_Project\smart_search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\MedIX_Project\smart_search\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -44,9 +44,6 @@
     <t>3. Caroline Presentation on Search engine being built</t>
   </si>
   <si>
-    <t>4. Srirams pPresentation on image based search engine</t>
-  </si>
-  <si>
     <t>I am alloted to work on Natural Language processing of smart search project for MyPacs data</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t xml:space="preserve">6. Hybrid text and image search </t>
   </si>
   <si>
-    <t xml:space="preserve">this covers </t>
-  </si>
-  <si>
     <t>Synonyms</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Adjectives</t>
   </si>
   <si>
-    <t>1. Priya's mobile number is +16308632175</t>
-  </si>
-  <si>
     <t>3. Validation file is the patient file recorded from CT or MRA ot X-Ray, etc., which is validated against its respective teaching file resposity available in RadLex and Oxford Medical Dictionary</t>
   </si>
   <si>
@@ -123,13 +114,35 @@
   </si>
   <si>
     <t>Installed GitHub in local system for version maintanance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Priya's mobile number is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+16308632175</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This covers </t>
+  </si>
+  <si>
+    <t>4. Srirams Presentation on image based search engine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +164,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +210,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -202,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -213,6 +240,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,6 +334,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -341,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,11 +555,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:R26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -507,193 +567,209 @@
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9">
-        <v>42902</v>
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>28</v>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>2</v>
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1"/>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>11</v>
+      <c r="B16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="4"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="4"/>
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" t="s">
-        <v>26</v>
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>15</v>
+      <c r="A22" s="5">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
+      <c r="A25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9">
+        <v>42903</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/smart_search/Prady_Status_Report.xlsx
+++ b/smart_search/Prady_Status_Report.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\MedIX_Project\smart_search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\MedIX_Project\smart_search\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="June2017" sheetId="1" r:id="rId1"/>
+    <sheet name="June_Planner" sheetId="2" r:id="rId1"/>
+    <sheet name="June2017" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -45,9 +46,6 @@
   </si>
   <si>
     <t>I am alloted to work on Natural Language processing of smart search project for MyPacs data</t>
-  </si>
-  <si>
-    <t>1. Prof assigned me the task to see or calculate the coverage of Ratle terms for each category like:</t>
   </si>
   <si>
     <t>a. Clinical findings</t>
@@ -137,11 +135,73 @@
   <si>
     <t>4. Srirams Presentation on image based search engine</t>
   </si>
+  <si>
+    <t>Activity Planned</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>1. Prof assigned me the task to see or calculate the coverage of Radlex terms for each category like:</t>
+  </si>
+  <si>
+    <t>1. Review the results with Priya
+2. Prepare the output
+3. Prepare presentation for Friday meeting</t>
+  </si>
+  <si>
+    <t>Activity-1 Status</t>
+  </si>
+  <si>
+    <t>Activity-2 Status</t>
+  </si>
+  <si>
+    <t>Activity-3 Status</t>
+  </si>
+  <si>
+    <t>1. Getting Familiar with MIRC, MyPACS and RedLex websites/data
+2. Studying the data and understanding its features
+3. Familiarizing the Py script used to generate this data</t>
+  </si>
+  <si>
+    <t>1. Understanding the coverage of Radlex terms for each of the 5 important category of MIRC teaching files with codes written by Priya
+2. Understanding and confirming the task I need to perform with Prof. Raicu (If it is the same coverage details expected or something different)
+3. Plan my coding activity for the task assigned</t>
+  </si>
+  <si>
+    <t>1. Write or reuse the code to calculate the coverage of Radlex terms (activity assigned after being confirmed with Prof. Raicu)</t>
+  </si>
+  <si>
+    <t>1. Presentation and weekly update
+2. Understand the mistake or missing works through Prof comments
+3. Work on those comments in rectifying them and finalize the task that needs to be done for next week</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +276,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,11 +297,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -241,6 +328,18 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,23 +433,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -386,23 +468,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,9 +620,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="138.7109375" style="16" customWidth="1"/>
+    <col min="4" max="6" width="15.42578125" style="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>42905</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>42906</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>42907</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>42908</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>42909</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>42910</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>42911</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>42912</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>42913</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>42914</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>42915</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>42916</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>42917</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>42918</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -577,10 +829,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -616,7 +868,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -629,7 +881,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -644,14 +896,14 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -660,68 +912,68 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
         <v>21</v>
       </c>
-      <c r="J18" t="s">
+      <c r="N18" t="s">
         <v>22</v>
-      </c>
-      <c r="N18" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -729,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -737,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -745,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -753,7 +1005,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -761,15 +1013,15 @@
         <v>0</v>
       </c>
       <c r="B25" s="9">
-        <v>42903</v>
+        <v>42905</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/smart_search/Prady_Status_Report.xlsx
+++ b/smart_search/Prady_Status_Report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\MedIX_Project\smart_search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\MedIX_Project\smart_search\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,6 +433,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -468,6 +485,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -623,7 +657,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/smart_search/Prady_Status_Report.xlsx
+++ b/smart_search/Prady_Status_Report.xlsx
@@ -278,13 +278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -328,18 +328,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,93 +622,93 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138.7109375" style="16" customWidth="1"/>
-    <col min="4" max="6" width="15.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="138.7109375" style="15" customWidth="1"/>
+    <col min="4" max="6" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>42905</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>42906</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>42907</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>42908</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>42909</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>42910</v>
       </c>
@@ -721,7 +720,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>42911</v>
       </c>
@@ -734,46 +733,46 @@
       <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>42912</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>42913</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>42914</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>42915</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>42916</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>42917</v>
       </c>
@@ -785,7 +784,7 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>42918</v>
       </c>

--- a/smart_search/Prady_Status_Report.xlsx
+++ b/smart_search/Prady_Status_Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -197,12 +197,18 @@
 2. Understand the mistake or missing works through Prof comments
 3. Work on those comments in rectifying them and finalize the task that needs to be done for next week</t>
   </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +234,20 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -316,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -340,6 +360,8 @@
     <xf numFmtId="15" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,6 +720,15 @@
       <c r="C2" s="15" t="s">
         <v>46</v>
       </c>
+      <c r="D2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -708,6 +739,12 @@
       </c>
       <c r="C3" s="15" t="s">
         <v>47</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">

--- a/smart_search/Prady_Status_Report.xlsx
+++ b/smart_search/Prady_Status_Report.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\MedIX_Project\smart_search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\MedIX_Project\smart_search\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="June_Planner" sheetId="2" r:id="rId1"/>
     <sheet name="June2017" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -202,13 +203,477 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>MIRC is a website which has the repository of all teaching files maintained by RSNA Informatics, these are available in http://mirc.rsna.org/query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. This teaching file repository consist of following details listed </t>
+  </si>
+  <si>
+    <t>2. This website has a search box, where we can search for any teaching file which we need for reference. However, the gap with this search is that it is a simple database queary which is happening in RSNA backend and fetch all queary with a wild card select search.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. For e.g. search for 'Renal artery aneurysms in Neurofibromatosis' in search box and click enter, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this will be a wild card search result</t>
+    </r>
+  </si>
+  <si>
+    <t>4. There is no natural language processing here, that is if we search for 'No Renal artery aneurysms in Neurofibromatosis' even then the search results are same</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Teaching File Titles</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">d. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Speciality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Clinical area of speaciality to which these teaching files belong to</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date Modified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Date when it is last modified with adding new images or updating/deleting old images</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Date Created </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Date on which the specific teaching files are created initially based on the title</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">g. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Access permission given, it is either (Public, Restricted and Private(owners only)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Package under which cases these teaching files are present and packed, generall the hospital name or institution name (there are totally 23 distinct libraries)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Author of the teaching file, it can be the name of the hospital or Institution or the radiologist who created this teaching file</t>
+    </r>
+  </si>
+  <si>
+    <t>6. There is also an advance search option which is again a wild card search but involving one or more collumn from RSNA database. So, search results at some case are mostly not relavant</t>
+  </si>
+  <si>
+    <t>7. Our Project is trying to close this gap and building an ability to provide a search window which also does natural language processing  not only from the data available from RSNA MIRC but also from other similar websites like MyPACS, etc., This is the high level requirement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. For few tiltles like 'Renal artery aneurysms in Neurofibromatosis' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>there are also duplicate records fetched,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> few cases may be real duplicates which few may not be duplicate, this needs to be handled as I see this would affect term frequency parameter</t>
+    </r>
+  </si>
+  <si>
+    <t>Each Title is linked to an XML file and this XML file consist of below elements in them:</t>
+  </si>
+  <si>
+    <t>a. Document</t>
+  </si>
+  <si>
+    <t>b. History</t>
+  </si>
+  <si>
+    <t>c. Findings</t>
+  </si>
+  <si>
+    <t>d. Diagnosis</t>
+  </si>
+  <si>
+    <t>e. DDx</t>
+  </si>
+  <si>
+    <t>f. Discussion</t>
+  </si>
+  <si>
+    <t>g. References</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Data Source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - This variable is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>made up</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Title </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Title of the teaching file is derived from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;title&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Authors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Person who created teaching file, it is derived form</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;p class="authorname"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. Date Created </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- it is derived from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p class="center"&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Publication Date:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+  </si>
+  <si>
+    <t>h. RadLex Term</t>
+  </si>
+  <si>
+    <t>i.  RadLex Term URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j. URL </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +711,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="5"/>
       <name val="Calibri"/>
@@ -455,23 +953,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -507,23 +988,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -678,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -746,6 +1210,9 @@
       <c r="E3" s="21" t="s">
         <v>50</v>
       </c>
+      <c r="F3" s="22" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -876,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,8 +1562,176 @@
         <v>24</v>
       </c>
     </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/smart_search/Prady_Status_Report.xlsx
+++ b/smart_search/Prady_Status_Report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\MedIX_Project\smart_search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\MedIX_Project\smart_search\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="June_Planner" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -186,11 +186,6 @@
 3. Familiarizing the Py script used to generate this data</t>
   </si>
   <si>
-    <t>1. Understanding the coverage of Radlex terms for each of the 5 important category of MIRC teaching files with codes written by Priya
-2. Understanding and confirming the task I need to perform with Prof. Raicu (If it is the same coverage details expected or something different)
-3. Plan my coding activity for the task assigned</t>
-  </si>
-  <si>
     <t>1. Write or reuse the code to calculate the coverage of Radlex terms (activity assigned after being confirmed with Prof. Raicu)</t>
   </si>
   <si>
@@ -667,12 +662,17 @@
   </si>
   <si>
     <t xml:space="preserve">j. URL </t>
+  </si>
+  <si>
+    <t>1. Understanding the coverage of Radlex terms for each of the 5 important category of MIRC teaching files with codes written by Sungmin and Priya team
+2. Understanding and confirming the task I need to perform with Prof. Raicu (If it is the same coverage details expected or something different)
+3. Plan my coding activity for the task assigned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -953,6 +953,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -988,6 +1005,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1142,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,16 +1219,16 @@
         <v>46</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>42906</v>
       </c>
@@ -1202,16 +1236,16 @@
         <v>35</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>51</v>
+        <v>81</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1222,7 +1256,16 @@
         <v>36</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1235,6 +1278,15 @@
       <c r="C5" s="15" t="s">
         <v>42</v>
       </c>
+      <c r="D5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -1244,7 +1296,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1345,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -1567,77 +1622,77 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,77 +1700,77 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/smart_search/Prady_Status_Report.xlsx
+++ b/smart_search/Prady_Status_Report.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -667,6 +667,26 @@
     <t>1. Understanding the coverage of Radlex terms for each of the 5 important category of MIRC teaching files with codes written by Sungmin and Priya team
 2. Understanding and confirming the task I need to perform with Prof. Raicu (If it is the same coverage details expected or something different)
 3. Plan my coding activity for the task assigned</t>
+  </si>
+  <si>
+    <t>1. Email Sugmin requesting for all latest codes used and follow up on that.
+2. Familiarize with BioPortal and sub categories to understand the dedogram generated by Priya team and what is reproduced by self
+3. Send the results obtained to Priya and continue to familiarize the Py script used to generate this data</t>
+  </si>
+  <si>
+    <t>1. Confirm how word frequencies are encoded is it with TFID or Entropy
+2. Confirm if the cluster results obtained is only part of a particular category or the whole MIRC website
+3. Interpret the result and do a small write-up and continue to familiarize the Py scipt from previous day</t>
+  </si>
+  <si>
+    <t>1. Meeting with Prof and showcase the work done till this week and get it validated and understand the direction to work for fridays meet.
+2. Work on the results reproduced much more and get more comfortable
+3. Try to do the writeup based on the results obtained from MIRC and get comfortable with Py code written</t>
+  </si>
+  <si>
+    <t>1. Get the writing validated and reviewed from Priya
+2. Prepare to walk through the code once and the cluster results obtained, understand what is entropy and why entropy is used as a parameter, etc., 
+3. Complete the presentation for Fridays meeting</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,8 +1298,8 @@
       <c r="C5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>50</v>
+      <c r="D5" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>49</v>
@@ -1298,8 +1318,14 @@
       <c r="C6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>50</v>
+      <c r="D6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1326,44 +1352,59 @@
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>42912</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>42913</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>42914</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>42915</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>42916</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>38</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">

--- a/smart_search/Prady_Status_Report.xlsx
+++ b/smart_search/Prady_Status_Report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\MedIX_Project\smart_search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\MedIX_Project\smart_search\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="June_Planner" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -687,12 +687,17 @@
     <t>1. Get the writing validated and reviewed from Priya
 2. Prepare to walk through the code once and the cluster results obtained, understand what is entropy and why entropy is used as a parameter, etc., 
 3. Complete the presentation for Fridays meeting</t>
+  </si>
+  <si>
+    <t>1. Presentation and weekly update, try to show the report return so far and walk through the code if possible.
+2. Understand the mistake or missing works through Prof comments
+3. Work on those comments in rectifying them and finalize the task that needs to be done for next week</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -973,23 +978,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1025,23 +1013,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1196,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1375,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1822,12 +1793,107 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="143.5703125" customWidth="1"/>
+    <col min="4" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>42912</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>42913</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>42914</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>42915</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>42916</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/smart_search/Prady_Status_Report.xlsx
+++ b/smart_search/Prady_Status_Report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\MedIX_Project\smart_search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\MedIX_Project\smart_search\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="June_Planner" sheetId="2" r:id="rId1"/>
@@ -697,7 +697,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -776,7 +776,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,6 +831,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -859,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -885,6 +891,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,6 +985,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1013,6 +1037,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1167,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,22 +1221,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1795,7 +1836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/smart_search/Prady_Status_Report.xlsx
+++ b/smart_search/Prady_Status_Report.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\MedIX_Project\smart_search\"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,6 +1374,15 @@
       <c r="C9" s="15" t="s">
         <v>82</v>
       </c>
+      <c r="D9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1385,6 +1394,15 @@
       <c r="C10" s="15" t="s">
         <v>83</v>
       </c>
+      <c r="D10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -1396,6 +1414,15 @@
       <c r="C11" s="15" t="s">
         <v>84</v>
       </c>
+      <c r="D11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -1406,6 +1433,15 @@
       </c>
       <c r="C12" s="15" t="s">
         <v>85</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1836,7 +1872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1874,9 +1912,15 @@
       <c r="C2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="D2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -1888,9 +1932,15 @@
       <c r="C3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="D3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -1902,9 +1952,15 @@
       <c r="C4" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="D4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -1916,9 +1972,15 @@
       <c r="C5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -1930,7 +1992,9 @@
       <c r="C6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>

--- a/smart_search/Prady_Status_Report.xlsx
+++ b/smart_search/Prady_Status_Report.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\MedIX_Project\smart_search\"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,15 +1374,6 @@
       <c r="C9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1394,15 +1385,6 @@
       <c r="C10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -1414,15 +1396,6 @@
       <c r="C11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -1433,15 +1406,6 @@
       </c>
       <c r="C12" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1872,9 +1836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1912,15 +1874,9 @@
       <c r="C2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>49</v>
-      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -1932,15 +1888,9 @@
       <c r="C3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>49</v>
-      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -1952,15 +1902,9 @@
       <c r="C4" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>50</v>
-      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -1972,15 +1916,9 @@
       <c r="C5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>49</v>
-      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -1992,9 +1930,7 @@
       <c r="C6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>50</v>
-      </c>
+      <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
